--- a/Value/Waste Management.xlsx
+++ b/Value/Waste Management.xlsx
@@ -5,30 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195155C3-FA5A-B344-BA73-5F4C6C07EDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA14706F-BF2F-E14C-831C-4D5D6290CBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="27100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$AK$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$AK$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AK$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AK$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AK$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$AK$106</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -47,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -527,6 +513,9 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -869,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -931,18 +920,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -977,12 +954,6 @@
     <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -990,7 +961,6 @@
     <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1002,6 +972,30 @@
     <xf numFmtId="9" fontId="12" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2659,10 +2653,10 @@
   <dimension ref="A1:AT118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AH65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN102" sqref="AN102"/>
+      <selection pane="bottomRight" activeCell="AO79" sqref="AO79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4786,7 +4780,7 @@
         <v>31.54232939969215</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4899,7 +4893,7 @@
         <v>378000000</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5011,8 +5005,11 @@
       <c r="AK18" s="1">
         <v>2038000000</v>
       </c>
+      <c r="AQ18" s="18" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5127,8 +5124,12 @@
       <c r="AL19" s="32">
         <v>5900000000</v>
       </c>
+      <c r="AQ19" s="66">
+        <f>AK40-AK56-AK61</f>
+        <v>-14633000000</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>102</v>
       </c>
@@ -5278,7 +5279,7 @@
         <v>0.10652663165791454</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5395,7 +5396,7 @@
         <v>0.28532740110262117</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5508,7 +5509,7 @@
         <v>3365000000</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5621,7 +5622,7 @@
         <v>0.17080000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5734,7 +5735,7 @@
         <v>-447000000</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5847,7 +5848,7 @@
         <v>2918000000</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5960,7 +5961,7 @@
         <v>0.14810000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6073,7 +6074,7 @@
         <v>678000000</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6186,7 +6187,7 @@
         <v>2238000000</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>103</v>
       </c>
@@ -6332,7 +6333,7 @@
         <v>0.23237885462555075</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -6445,7 +6446,7 @@
         <v>0.11360000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -6558,7 +6559,7 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -12502,10 +12503,10 @@
       <c r="AK83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR83" s="33" t="s">
+      <c r="AR83" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="AS83" s="34"/>
+      <c r="AS83" s="61"/>
     </row>
     <row r="84" spans="1:45" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -12619,10 +12620,10 @@
       <c r="AK84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR84" s="35" t="s">
+      <c r="AR84" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="AS84" s="36"/>
+      <c r="AS84" s="63"/>
     </row>
     <row r="85" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13096,10 +13097,10 @@
       <c r="AK88" s="1">
         <v>0</v>
       </c>
-      <c r="AR88" s="37" t="s">
+      <c r="AR88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AS88" s="38">
+      <c r="AS88" s="34">
         <f>AS85/(AS86+AS87)</f>
         <v>2.5226908702616124E-2</v>
       </c>
@@ -13492,10 +13493,10 @@
       <c r="AK91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR91" s="37" t="s">
+      <c r="AR91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AS91" s="38">
+      <c r="AS91" s="34">
         <f>AS89/AS90</f>
         <v>0.23235092529129542</v>
       </c>
@@ -13612,10 +13613,10 @@
       <c r="AK92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR92" s="39" t="s">
+      <c r="AR92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AS92" s="40">
+      <c r="AS92" s="36">
         <f>AS88*(1-AS91)</f>
         <v>1.9365413123324234E-2</v>
       </c>
@@ -13732,10 +13733,10 @@
       <c r="AK93" s="1">
         <v>-2686000000</v>
       </c>
-      <c r="AR93" s="35" t="s">
+      <c r="AR93" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="AS93" s="36"/>
+      <c r="AS93" s="63"/>
     </row>
     <row r="94" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -13852,7 +13853,7 @@
       <c r="AR94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AS94" s="41">
+      <c r="AS94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -13971,7 +13972,7 @@
       <c r="AR95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AS95" s="42">
+      <c r="AS95" s="38">
         <v>0.73</v>
       </c>
     </row>
@@ -14090,7 +14091,7 @@
       <c r="AR96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AS96" s="41">
+      <c r="AS96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14206,10 +14207,10 @@
       <c r="AK97" s="1">
         <v>-1500000000</v>
       </c>
-      <c r="AR97" s="39" t="s">
+      <c r="AR97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AS97" s="40">
+      <c r="AS97" s="36">
         <f>(AS94)+((AS95)*(AS96-AS94))</f>
         <v>7.237650000000001E-2</v>
       </c>
@@ -14326,10 +14327,10 @@
       <c r="AK98" s="1">
         <v>-1077000000</v>
       </c>
-      <c r="AR98" s="35" t="s">
+      <c r="AR98" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="AS98" s="36"/>
+      <c r="AS98" s="63"/>
     </row>
     <row r="99" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -14563,10 +14564,10 @@
       <c r="AK100" s="10">
         <v>-1216000000</v>
       </c>
-      <c r="AR100" s="37" t="s">
+      <c r="AR100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AS100" s="38">
+      <c r="AS100" s="34">
         <f>AS99/AS103</f>
         <v>0.19597174993460634</v>
       </c>
@@ -14686,7 +14687,7 @@
       <c r="AR101" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="AS101" s="43">
+      <c r="AS101" s="39">
         <v>61476000000</v>
       </c>
     </row>
@@ -14802,10 +14803,10 @@
       <c r="AK102" s="10">
         <v>251000000</v>
       </c>
-      <c r="AR102" s="37" t="s">
+      <c r="AR102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AS102" s="38">
+      <c r="AS102" s="34">
         <f>AS101/AS103</f>
         <v>0.80402825006539369</v>
       </c>
@@ -14922,10 +14923,10 @@
       <c r="AK103" s="1">
         <v>194000000</v>
       </c>
-      <c r="AR103" s="39" t="s">
+      <c r="AR103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AS103" s="44">
+      <c r="AS103" s="40">
         <f>AS99+AS101</f>
         <v>76460000000</v>
       </c>
@@ -15042,10 +15043,10 @@
       <c r="AK104" s="11">
         <v>445000000</v>
       </c>
-      <c r="AR104" s="35" t="s">
+      <c r="AR104" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="AS104" s="36"/>
+      <c r="AS104" s="63"/>
     </row>
     <row r="105" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -15318,33 +15319,33 @@
       <c r="AK106" s="1">
         <v>1949000000</v>
       </c>
-      <c r="AL106" s="45">
+      <c r="AL106" s="41">
         <f>AK106*(1+$AS$106)</f>
         <v>2058795496.3247435</v>
       </c>
-      <c r="AM106" s="45">
+      <c r="AM106" s="41">
         <f t="shared" ref="AM106:AP106" si="29">AL106*(1+$AS$106)</f>
         <v>2174776242.0149035</v>
       </c>
-      <c r="AN106" s="45">
+      <c r="AN106" s="41">
         <f t="shared" si="29"/>
         <v>2297290678.5912437</v>
       </c>
-      <c r="AO106" s="45">
+      <c r="AO106" s="41">
         <f t="shared" si="29"/>
         <v>2426706876.7739697</v>
       </c>
-      <c r="AP106" s="45">
+      <c r="AP106" s="41">
         <f t="shared" si="29"/>
         <v>2563413642.2793908</v>
       </c>
-      <c r="AQ106" s="46" t="s">
+      <c r="AQ106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="AR106" s="47" t="s">
+      <c r="AR106" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="AS106" s="48">
+      <c r="AS106" s="44">
         <f>(SUM(AL4:AP4)/5)</f>
         <v>5.6334272100945881E-2</v>
       </c>
@@ -15387,150 +15388,150 @@
       <c r="AI107" s="13"/>
       <c r="AJ107" s="13"/>
       <c r="AK107" s="13"/>
-      <c r="AL107" s="46"/>
-      <c r="AM107" s="46"/>
-      <c r="AN107" s="46"/>
-      <c r="AO107" s="46"/>
-      <c r="AP107" s="49">
+      <c r="AL107" s="42"/>
+      <c r="AM107" s="42"/>
+      <c r="AN107" s="42"/>
+      <c r="AO107" s="42"/>
+      <c r="AP107" s="45">
         <f>AP106*(1+AS107)/(AS108-AS107)</f>
         <v>62272383574.104187</v>
       </c>
-      <c r="AQ107" s="50" t="s">
+      <c r="AQ107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="AR107" s="51" t="s">
+      <c r="AR107" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="AS107" s="52">
+      <c r="AS107" s="48">
         <v>0.02</v>
       </c>
     </row>
     <row r="108" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="AL108" s="49">
+      <c r="AL108" s="45">
         <f t="shared" ref="AL108:AN108" si="30">AL107+AL106</f>
         <v>2058795496.3247435</v>
       </c>
-      <c r="AM108" s="49">
+      <c r="AM108" s="45">
         <f t="shared" si="30"/>
         <v>2174776242.0149035</v>
       </c>
-      <c r="AN108" s="49">
+      <c r="AN108" s="45">
         <f t="shared" si="30"/>
         <v>2297290678.5912437</v>
       </c>
-      <c r="AO108" s="49">
+      <c r="AO108" s="45">
         <f>AO107+AO106</f>
         <v>2426706876.7739697</v>
       </c>
-      <c r="AP108" s="49">
+      <c r="AP108" s="45">
         <f>AP107+AP106</f>
         <v>64835797216.383575</v>
       </c>
-      <c r="AQ108" s="50" t="s">
+      <c r="AQ108" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="AR108" s="53" t="s">
+      <c r="AR108" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AS108" s="54">
+      <c r="AS108" s="50">
         <f>AS105</f>
         <v>6.1987824538842412E-2</v>
       </c>
     </row>
     <row r="109" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="AL109" s="55" t="s">
+      <c r="AL109" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="AM109" s="56"/>
+      <c r="AM109" s="65"/>
     </row>
     <row r="110" spans="1:45" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL110" s="57" t="s">
+      <c r="AL110" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="AM110" s="58">
+      <c r="AM110" s="52">
         <f>NPV(AS108,AL108,AM108,AN108,AO108,AP108)</f>
         <v>55690134464.223488</v>
       </c>
     </row>
     <row r="111" spans="1:45" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL111" s="57" t="s">
+      <c r="AL111" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="AM111" s="58">
+      <c r="AM111" s="52">
         <f>AK40</f>
         <v>351000000</v>
       </c>
     </row>
     <row r="112" spans="1:45" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL112" s="57" t="s">
+      <c r="AL112" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="AM112" s="58">
+      <c r="AM112" s="52">
         <f>AS99</f>
         <v>14984000000</v>
       </c>
     </row>
     <row r="113" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL113" s="57" t="s">
+      <c r="AL113" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="AM113" s="58">
+      <c r="AM113" s="52">
         <f>AM110+AM111-AM112</f>
         <v>41057134464.223488</v>
       </c>
     </row>
     <row r="114" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL114" s="59" t="s">
+      <c r="AL114" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="AM114" s="60">
-        <f>AK34</f>
-        <v>415000000</v>
+      <c r="AM114" s="67">
+        <f>AK34*(1+(5*AQ16))</f>
+        <v>389187658.49848342</v>
       </c>
     </row>
     <row r="115" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL115" s="61" t="s">
+      <c r="AL115" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="AM115" s="62">
+      <c r="AM115" s="55">
         <f>AM113/AM114</f>
-        <v>98.93285413065901</v>
+        <v>105.49444096615278</v>
       </c>
     </row>
     <row r="116" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL116" s="59" t="s">
+      <c r="AL116" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="AM116" s="63">
+      <c r="AM116" s="56">
         <v>150.62</v>
       </c>
     </row>
     <row r="117" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL117" s="64" t="s">
+      <c r="AL117" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="AM117" s="65">
+      <c r="AM117" s="58">
         <f>AM115/AM116-1</f>
-        <v>-0.34316256718457705</v>
+        <v>-0.29959871885438338</v>
       </c>
     </row>
     <row r="118" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL118" s="64" t="s">
+      <c r="AL118" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="AM118" s="66" t="str">
+      <c r="AM118" s="59" t="str">
         <f>IF(AM115&gt;AM116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AL109:AM109"/>
     <mergeCell ref="AR83:AS83"/>
     <mergeCell ref="AR84:AS84"/>
     <mergeCell ref="AR93:AS93"/>
     <mergeCell ref="AR98:AS98"/>
     <mergeCell ref="AR104:AS104"/>
-    <mergeCell ref="AL109:AM109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/WM" display="ROIC.AI | WM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
